--- a/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="17980"/>
+    <workbookView windowWidth="21440" windowHeight="18660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Asset ID</t>
   </si>
@@ -47,36 +47,18 @@
     <t>Is valve repaired?
 (Y/N)</t>
   </si>
-  <si>
-    <t>WIB-PSV-V05A-4</t>
-  </si>
-  <si>
-    <t>Pressure Safety Valve V05A</t>
-  </si>
-  <si>
-    <t>NBU</t>
-  </si>
-  <si>
-    <t>AIDA-A</t>
-  </si>
-  <si>
-    <t>Refurbish valve body, gear box and replace bolts and nuts.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +75,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -108,38 +143,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,17 +158,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,51 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +211,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,13 +240,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,31 +378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,133 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,9 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,37 +530,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,161 +562,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,20 +737,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,13 +1079,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.4196428571429" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="28.4196428571429" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.0357142857143" customWidth="1"/>
     <col min="2" max="2" width="20.5357142857143" customWidth="1"/>
@@ -1147,62 +1098,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="24" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="22" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9">
-        <v>45078</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1210,11 +1138,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 D3 G3">
-      <formula1>[1]Lookup!#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="18660"/>
+    <workbookView windowWidth="30300" windowHeight="17980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -53,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,8 +72,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,59 +90,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,17 +103,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,23 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,175 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +471,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,9 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,148 +573,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,23 +799,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Inspection History"/>
-      <sheetName val="Maintenance History"/>
-      <sheetName val="Lookup"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,7 +1062,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="G3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.4196428571429" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1138,6 +1118,11 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/MaintenanceTemplate.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30300" windowHeight="17980"/>
+    <workbookView windowWidth="29840" windowHeight="17680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Maintenance" sheetId="1" r:id="rId1"/>
+    <sheet name="DataLookup" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
   <si>
     <t>Asset ID</t>
   </si>
@@ -43,6 +47,411 @@
   <si>
     <t>Is valve repaired?
 (Y/N)</t>
+  </si>
+  <si>
+    <t>Bussiness Unit Area</t>
+  </si>
+  <si>
+    <t>Leakage Potential</t>
+  </si>
+  <si>
+    <t>Loss Type</t>
+  </si>
+  <si>
+    <t>Cost of repair as % of new valve cost</t>
+  </si>
+  <si>
+    <t>LF4 - Impact of Internal Fluid Impurities</t>
+  </si>
+  <si>
+    <t>LF5 - Impact of Operating Envelopes</t>
+  </si>
+  <si>
+    <t>LF6 - Used within OEM Specification</t>
+  </si>
+  <si>
+    <t>LF7 - Repaired</t>
+  </si>
+  <si>
+    <t>CF2 - HSSE Definision</t>
+  </si>
+  <si>
+    <t>SBU</t>
+  </si>
+  <si>
+    <t>AIDA-A</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Increased degradation</t>
+  </si>
+  <si>
+    <t>No Expected Effect</t>
+  </si>
+  <si>
+    <t>Significantly Below Specification</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple Fatalities</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>ARYANI-A</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Downstream cascade effect significant</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Moderate Effect</t>
+  </si>
+  <si>
+    <t>Within Specification Range</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Single Fatality or Total Permanent</t>
+  </si>
+  <si>
+    <t>NBU</t>
+  </si>
+  <si>
+    <t>CHESSY-A</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Downstream  cascading effect not significant</t>
+  </si>
+  <si>
+    <t>Decreased degradation</t>
+  </si>
+  <si>
+    <t>Significant Effect</t>
+  </si>
+  <si>
+    <t>Above Specification Limit</t>
+  </si>
+  <si>
+    <t>Moderate or Significant Injury or Health Effect</t>
+  </si>
+  <si>
+    <t>PABELOKAN</t>
+  </si>
+  <si>
+    <t>INDRI-A</t>
+  </si>
+  <si>
+    <t>Minor Injury or Health Effect</t>
+  </si>
+  <si>
+    <t>INTAN-A</t>
+  </si>
+  <si>
+    <t>Slight Injury or Health Effect</t>
+  </si>
+  <si>
+    <t>INTAN-AC</t>
+  </si>
+  <si>
+    <t>INTAN-B</t>
+  </si>
+  <si>
+    <t>INTAN-BPC</t>
+  </si>
+  <si>
+    <t>LIDYA-A</t>
+  </si>
+  <si>
+    <t>NE.INTAN-A</t>
+  </si>
+  <si>
+    <t>NE.INTAN-AC</t>
+  </si>
+  <si>
+    <t>VITA-A</t>
+  </si>
+  <si>
+    <t>WIDURI-A</t>
+  </si>
+  <si>
+    <t>WIDURI-B</t>
+  </si>
+  <si>
+    <t>WIDURI-C</t>
+  </si>
+  <si>
+    <t>WIDURI-D</t>
+  </si>
+  <si>
+    <t>WIDURI-DC</t>
+  </si>
+  <si>
+    <t>WIDURI-E</t>
+  </si>
+  <si>
+    <t>WIDURI-F</t>
+  </si>
+  <si>
+    <t>WIDURI-G</t>
+  </si>
+  <si>
+    <t>WIDURI-H</t>
+  </si>
+  <si>
+    <t>WIDURI-P</t>
+  </si>
+  <si>
+    <t>WIDURI-P FLARE</t>
+  </si>
+  <si>
+    <t>WINDRI-A</t>
+  </si>
+  <si>
+    <t>ASTI-A</t>
+  </si>
+  <si>
+    <t>ATTI-A</t>
+  </si>
+  <si>
+    <t>BANUWATI-A</t>
+  </si>
+  <si>
+    <t>BANUWATI-K</t>
+  </si>
+  <si>
+    <t>FARIDA-A</t>
+  </si>
+  <si>
+    <t>FARIDA-B</t>
+  </si>
+  <si>
+    <t>FARIDA-C</t>
+  </si>
+  <si>
+    <t>KARMILA-A</t>
+  </si>
+  <si>
+    <t>KARTINI-A</t>
+  </si>
+  <si>
+    <t>KRISNA-A</t>
+  </si>
+  <si>
+    <t>KRISNA-B</t>
+  </si>
+  <si>
+    <t>KRISNA-C</t>
+  </si>
+  <si>
+    <t>KRISNA-D</t>
+  </si>
+  <si>
+    <t>KRISNA-E</t>
+  </si>
+  <si>
+    <t>KRISNA-P</t>
+  </si>
+  <si>
+    <t>KRISNA-P FLARE A</t>
+  </si>
+  <si>
+    <t>KRISNA-P FLARE B</t>
+  </si>
+  <si>
+    <t>KRISNA-P FLARE C</t>
+  </si>
+  <si>
+    <t>MILA-A</t>
+  </si>
+  <si>
+    <t>S.ZELDA-A</t>
+  </si>
+  <si>
+    <t>SUNDARI-A</t>
+  </si>
+  <si>
+    <t>SUNDARI-B</t>
+  </si>
+  <si>
+    <t>THERESIA-A</t>
+  </si>
+  <si>
+    <t>TITI-A</t>
+  </si>
+  <si>
+    <t>YANI-A</t>
+  </si>
+  <si>
+    <t>YVONNE-A</t>
+  </si>
+  <si>
+    <t>YVONNE-B</t>
+  </si>
+  <si>
+    <t>ZELDA-A</t>
+  </si>
+  <si>
+    <t>ZELDA-B</t>
+  </si>
+  <si>
+    <t>ZELDA-C</t>
+  </si>
+  <si>
+    <t>ZELDA-D</t>
+  </si>
+  <si>
+    <t>ZELDA-E</t>
+  </si>
+  <si>
+    <t>ZELDA-F</t>
+  </si>
+  <si>
+    <t>ZELDA-P</t>
+  </si>
+  <si>
+    <t>ZELDA-P FLARE</t>
+  </si>
+  <si>
+    <t>ZELDA-PC</t>
+  </si>
+  <si>
+    <t>CINTA-A</t>
+  </si>
+  <si>
+    <t>CINTA-A FLARE</t>
+  </si>
+  <si>
+    <t>CINTA-B</t>
+  </si>
+  <si>
+    <t>CINTA-B FLARE</t>
+  </si>
+  <si>
+    <t>CINTA-C</t>
+  </si>
+  <si>
+    <t>CINTA-D</t>
+  </si>
+  <si>
+    <t>CINTA-E</t>
+  </si>
+  <si>
+    <t>CINTA-F</t>
+  </si>
+  <si>
+    <t>CINTA-G</t>
+  </si>
+  <si>
+    <t>CINTA-H</t>
+  </si>
+  <si>
+    <t>CINTA-P</t>
+  </si>
+  <si>
+    <t>CINTA-P1</t>
+  </si>
+  <si>
+    <t>CINTA-P1 FLARE</t>
+  </si>
+  <si>
+    <t>EAST RAMA-A</t>
+  </si>
+  <si>
+    <t>GITA-A</t>
+  </si>
+  <si>
+    <t>KITTY-A</t>
+  </si>
+  <si>
+    <t>LITA-A</t>
+  </si>
+  <si>
+    <t>NORA-A</t>
+  </si>
+  <si>
+    <t>N.WANDA-A</t>
+  </si>
+  <si>
+    <t>N.WANDA-B</t>
+  </si>
+  <si>
+    <t>RAMA-A</t>
+  </si>
+  <si>
+    <t>RAMA-B</t>
+  </si>
+  <si>
+    <t>RAMA-B FLARE 1</t>
+  </si>
+  <si>
+    <t>RAMA-B FLARE 2</t>
+  </si>
+  <si>
+    <t>RAMA-C</t>
+  </si>
+  <si>
+    <t>RAMA-D</t>
+  </si>
+  <si>
+    <t>RAMA-E</t>
+  </si>
+  <si>
+    <t>RAMA-F</t>
+  </si>
+  <si>
+    <t>RAMA-G</t>
+  </si>
+  <si>
+    <t>RAMA-H</t>
+  </si>
+  <si>
+    <t>RAMA-I</t>
+  </si>
+  <si>
+    <t>RAMA-P</t>
+  </si>
+  <si>
+    <t>SELATAN-A</t>
+  </si>
+  <si>
+    <t>SURATMI-A</t>
+  </si>
+  <si>
+    <t>SW.WANDA-A</t>
+  </si>
+  <si>
+    <t>WANDA-A</t>
+  </si>
+  <si>
+    <t>LISA-A</t>
+  </si>
+  <si>
+    <t>GMS CILEGON</t>
+  </si>
+  <si>
+    <t>PABELOKAN POWER PLANT</t>
+  </si>
+  <si>
+    <t>PABELOKAN GAS PLANT</t>
   </si>
 </sst>
 </file>
@@ -50,13 +459,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,63 +490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,7 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,15 +522,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,8 +536,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,17 +626,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,13 +655,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,157 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,17 +889,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +918,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +981,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -573,171 +991,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,6 +1222,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Inspection"/>
+      <sheetName val="DataLookup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,7 +1500,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A3:G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.4196428571429" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1070,7 +1508,7 @@
     <col min="1" max="1" width="13.0357142857143" customWidth="1"/>
     <col min="2" max="2" width="20.5357142857143" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="8.21428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.7678571428571" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="26.25" customWidth="1"/>
     <col min="7" max="7" width="15.3571428571429" customWidth="1"/>
@@ -1078,38 +1516,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" ht="24" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1118,12 +1556,672 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>DataLookup!$B$3:$B$102</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>DataLookup!$A$3:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="2" width="27.4553571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.4553571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.3660714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6339285714286" style="1" customWidth="1"/>
+    <col min="6" max="54" width="30.4553571428571" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:2">
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="2:2">
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="2:2">
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="2:2">
+      <c r="B71" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="2:2">
+      <c r="B72" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="2:2">
+      <c r="B73" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:2">
+      <c r="B74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:2">
+      <c r="B75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:2">
+      <c r="B77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="2:2">
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="2:2">
+      <c r="B79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="2:2">
+      <c r="B80" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="2:2">
+      <c r="B83" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="2:2">
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="2:2">
+      <c r="B86" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="2:2">
+      <c r="B87" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:2">
+      <c r="B88" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="2:2">
+      <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="2:2">
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="2:2">
+      <c r="B92" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="2:2">
+      <c r="B94" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="2:2">
+      <c r="B95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:2">
+      <c r="B96" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="2:2">
+      <c r="B97" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:2">
+      <c r="B98" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:2">
+      <c r="B100" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:2">
+      <c r="B101" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="2:2">
+      <c r="B102" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>